--- a/data/output/FV2404_FV2310/UTILMD/55112.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55112.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10165" uniqueCount="707">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10186" uniqueCount="707">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2344,6 +2344,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U455" totalsRowShown="0">
+  <autoFilter ref="A1:U455"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2633,7 +2663,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U455"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24209,5 +24242,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55112.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55112.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12410" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12220" uniqueCount="1152">
   <si>
     <t>#</t>
   </si>
@@ -9890,46 +9890,44 @@
       <c r="V113" s="9"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2" t="s">
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="L114" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M114" s="2" t="s">
+      <c r="L114" s="7"/>
+      <c r="M114" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="N114" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2" t="s">
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="V114" s="2" t="s">
+      <c r="V114" s="5" t="s">
         <v>547</v>
       </c>
     </row>
@@ -10200,44 +10198,42 @@
       </c>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2" t="s">
+      <c r="C120" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K120" s="2"/>
-      <c r="L120" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M120" s="2" t="s">
+      <c r="K120" s="5"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N120" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-      <c r="U120" s="2" t="s">
+      <c r="N120" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V120" s="2"/>
+      <c r="V120" s="5"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="2" t="s">
@@ -10429,9 +10425,7 @@
         <v>467</v>
       </c>
       <c r="K124" s="2"/>
-      <c r="L124" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L124" s="7"/>
       <c r="M124" s="2" t="s">
         <v>50</v>
       </c>
@@ -10458,46 +10452,44 @@
       <c r="V124" s="2"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2" t="s">
+      <c r="C125" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="L125" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M125" s="2" t="s">
+      <c r="L125" s="7"/>
+      <c r="M125" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N125" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2" t="s">
+      <c r="N125" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="V125" s="2" t="s">
+      <c r="V125" s="5" t="s">
         <v>544</v>
       </c>
     </row>
@@ -11007,9 +10999,7 @@
         <v>467</v>
       </c>
       <c r="K135" s="2"/>
-      <c r="L135" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L135" s="7"/>
       <c r="M135" s="2" t="s">
         <v>47</v>
       </c>
@@ -11164,46 +11154,44 @@
       <c r="V138" s="9"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
+      <c r="C139" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="L139" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M139" s="2" t="s">
+      <c r="L139" s="7"/>
+      <c r="M139" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N139" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2" t="s">
+      <c r="N139" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="5"/>
+      <c r="S139" s="5"/>
+      <c r="T139" s="5"/>
+      <c r="U139" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="V139" s="2" t="s">
+      <c r="V139" s="5" t="s">
         <v>544</v>
       </c>
     </row>
@@ -11474,46 +11462,44 @@
       </c>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
+      <c r="C145" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N145" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
+      <c r="N145" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="V145" s="5" t="s">
         <v>544</v>
       </c>
     </row>
@@ -11753,9 +11739,7 @@
         <v>467</v>
       </c>
       <c r="K150" s="2"/>
-      <c r="L150" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L150" s="7"/>
       <c r="M150" s="2" t="s">
         <v>53</v>
       </c>
@@ -11809,9 +11793,7 @@
         <v>467</v>
       </c>
       <c r="K151" s="2"/>
-      <c r="L151" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L151" s="7"/>
       <c r="M151" s="2" t="s">
         <v>53</v>
       </c>
@@ -11865,9 +11847,7 @@
         <v>467</v>
       </c>
       <c r="K152" s="2"/>
-      <c r="L152" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L152" s="7"/>
       <c r="M152" s="2" t="s">
         <v>53</v>
       </c>
@@ -12029,9 +12009,7 @@
         <v>493</v>
       </c>
       <c r="K155" s="2"/>
-      <c r="L155" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L155" s="7"/>
       <c r="M155" s="2" t="s">
         <v>54</v>
       </c>
@@ -12087,9 +12065,7 @@
       <c r="K156" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="L156" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L156" s="7"/>
       <c r="M156" s="2" t="s">
         <v>54</v>
       </c>
@@ -12118,44 +12094,42 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2" t="s">
+      <c r="C157" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K157" s="2"/>
-      <c r="L157" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M157" s="2" t="s">
+      <c r="K157" s="5"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N157" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2" t="s">
+      <c r="N157" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V157" s="2"/>
+      <c r="V157" s="5"/>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="2" t="s">
@@ -12393,9 +12367,7 @@
         <v>467</v>
       </c>
       <c r="K162" s="2"/>
-      <c r="L162" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L162" s="7"/>
       <c r="M162" s="2" t="s">
         <v>55</v>
       </c>
@@ -12449,9 +12421,7 @@
         <v>467</v>
       </c>
       <c r="K163" s="2"/>
-      <c r="L163" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L163" s="7"/>
       <c r="M163" s="2" t="s">
         <v>55</v>
       </c>
@@ -12478,46 +12448,44 @@
       <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2" t="s">
+      <c r="C164" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L164" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M164" s="2" t="s">
+      <c r="L164" s="7"/>
+      <c r="M164" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N164" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2" t="s">
+      <c r="N164" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O164" s="5"/>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+      <c r="R164" s="5"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+      <c r="U164" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V164" s="2" t="s">
+      <c r="V164" s="5" t="s">
         <v>551</v>
       </c>
     </row>
@@ -12815,9 +12783,7 @@
         <v>467</v>
       </c>
       <c r="K170" s="2"/>
-      <c r="L170" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L170" s="7"/>
       <c r="M170" s="2" t="s">
         <v>57</v>
       </c>
@@ -13035,9 +13001,7 @@
       <c r="K174" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L174" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L174" s="7"/>
       <c r="M174" s="2" t="s">
         <v>58</v>
       </c>
@@ -13255,9 +13219,7 @@
         <v>467</v>
       </c>
       <c r="K178" s="2"/>
-      <c r="L178" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L178" s="7"/>
       <c r="M178" s="2" t="s">
         <v>59</v>
       </c>
@@ -13473,9 +13435,7 @@
         <v>467</v>
       </c>
       <c r="K182" s="2"/>
-      <c r="L182" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L182" s="7"/>
       <c r="M182" s="2" t="s">
         <v>60</v>
       </c>
@@ -13695,9 +13655,7 @@
         <v>467</v>
       </c>
       <c r="K186" s="2"/>
-      <c r="L186" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L186" s="7"/>
       <c r="M186" s="2" t="s">
         <v>61</v>
       </c>
@@ -13724,46 +13682,44 @@
       <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2" t="s">
+      <c r="C187" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+      <c r="J187" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K187" s="2" t="s">
+      <c r="K187" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="L187" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M187" s="2" t="s">
+      <c r="L187" s="7"/>
+      <c r="M187" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N187" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
-      <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
-      <c r="U187" s="2" t="s">
+      <c r="N187" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O187" s="5"/>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+      <c r="R187" s="5"/>
+      <c r="S187" s="5"/>
+      <c r="T187" s="5"/>
+      <c r="U187" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="V187" s="2" t="s">
+      <c r="V187" s="5" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14003,9 +13959,7 @@
         <v>467</v>
       </c>
       <c r="K192" s="2"/>
-      <c r="L192" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L192" s="7"/>
       <c r="M192" s="2" t="s">
         <v>62</v>
       </c>
@@ -14032,46 +13986,44 @@
       <c r="V192" s="2"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2" t="s">
+      <c r="C193" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K193" s="2" t="s">
+      <c r="K193" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="L193" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M193" s="2" t="s">
+      <c r="L193" s="7"/>
+      <c r="M193" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N193" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2" t="s">
+      <c r="N193" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
+      <c r="S193" s="5"/>
+      <c r="T193" s="5"/>
+      <c r="U193" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="V193" s="2" t="s">
+      <c r="V193" s="5" t="s">
         <v>554</v>
       </c>
     </row>
@@ -14265,9 +14217,7 @@
         <v>467</v>
       </c>
       <c r="K197" s="2"/>
-      <c r="L197" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L197" s="7"/>
       <c r="M197" s="2" t="s">
         <v>63</v>
       </c>
@@ -14321,9 +14271,7 @@
         <v>467</v>
       </c>
       <c r="K198" s="2"/>
-      <c r="L198" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L198" s="7"/>
       <c r="M198" s="2" t="s">
         <v>63</v>
       </c>
@@ -14350,46 +14298,44 @@
       <c r="V198" s="2"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2" t="s">
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="K199" s="2" t="s">
+      <c r="K199" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="L199" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M199" s="2" t="s">
+      <c r="L199" s="7"/>
+      <c r="M199" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N199" s="2" t="s">
+      <c r="N199" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2" t="s">
+      <c r="O199" s="5"/>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+      <c r="R199" s="5"/>
+      <c r="S199" s="5"/>
+      <c r="T199" s="5"/>
+      <c r="U199" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="V199" s="2" t="s">
+      <c r="V199" s="5" t="s">
         <v>555</v>
       </c>
     </row>
@@ -14656,44 +14602,42 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
+      <c r="C205" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K205" s="2"/>
-      <c r="L205" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="K205" s="5"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
+      <c r="N205" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V205" s="2"/>
+      <c r="V205" s="5"/>
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="2" t="s">
@@ -14931,9 +14875,7 @@
         <v>470</v>
       </c>
       <c r="K210" s="2"/>
-      <c r="L210" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L210" s="7"/>
       <c r="M210" s="2" t="s">
         <v>67</v>
       </c>
@@ -14987,9 +14929,7 @@
         <v>470</v>
       </c>
       <c r="K211" s="2"/>
-      <c r="L211" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L211" s="7"/>
       <c r="M211" s="2" t="s">
         <v>67</v>
       </c>
@@ -15043,9 +14983,7 @@
         <v>470</v>
       </c>
       <c r="K212" s="2"/>
-      <c r="L212" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L212" s="7"/>
       <c r="M212" s="2" t="s">
         <v>67</v>
       </c>
@@ -15099,9 +15037,7 @@
         <v>470</v>
       </c>
       <c r="K213" s="2"/>
-      <c r="L213" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L213" s="7"/>
       <c r="M213" s="2" t="s">
         <v>67</v>
       </c>
@@ -15259,9 +15195,7 @@
         <v>467</v>
       </c>
       <c r="K216" s="2"/>
-      <c r="L216" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L216" s="7"/>
       <c r="M216" s="2" t="s">
         <v>68</v>
       </c>
@@ -15423,9 +15357,7 @@
         <v>467</v>
       </c>
       <c r="K219" s="2"/>
-      <c r="L219" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L219" s="7"/>
       <c r="M219" s="2" t="s">
         <v>69</v>
       </c>
@@ -15479,9 +15411,7 @@
         <v>467</v>
       </c>
       <c r="K220" s="2"/>
-      <c r="L220" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L220" s="7"/>
       <c r="M220" s="2" t="s">
         <v>69</v>
       </c>
@@ -15643,9 +15573,7 @@
         <v>467</v>
       </c>
       <c r="K223" s="2"/>
-      <c r="L223" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L223" s="7"/>
       <c r="M223" s="2" t="s">
         <v>70</v>
       </c>
@@ -15699,9 +15627,7 @@
         <v>467</v>
       </c>
       <c r="K224" s="2"/>
-      <c r="L224" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L224" s="7"/>
       <c r="M224" s="2" t="s">
         <v>70</v>
       </c>
@@ -15728,46 +15654,44 @@
       <c r="V224" s="2"/>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2" t="s">
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="K225" s="2" t="s">
+      <c r="K225" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="L225" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M225" s="2" t="s">
+      <c r="L225" s="7"/>
+      <c r="M225" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N225" s="2" t="s">
+      <c r="N225" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-      <c r="Q225" s="2"/>
-      <c r="R225" s="2"/>
-      <c r="S225" s="2"/>
-      <c r="T225" s="2"/>
-      <c r="U225" s="2" t="s">
+      <c r="O225" s="5"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="S225" s="5"/>
+      <c r="T225" s="5"/>
+      <c r="U225" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="V225" s="2" t="s">
+      <c r="V225" s="5" t="s">
         <v>558</v>
       </c>
     </row>
@@ -16100,46 +16024,44 @@
       <c r="V231" s="2"/>
     </row>
     <row r="232" spans="1:22">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2" t="s">
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="K232" s="2" t="s">
+      <c r="K232" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="L232" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M232" s="2" t="s">
+      <c r="L232" s="7"/>
+      <c r="M232" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N232" s="2" t="s">
+      <c r="N232" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-      <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
-      <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
-      <c r="U232" s="2" t="s">
+      <c r="O232" s="5"/>
+      <c r="P232" s="5"/>
+      <c r="Q232" s="5"/>
+      <c r="R232" s="5"/>
+      <c r="S232" s="5"/>
+      <c r="T232" s="5"/>
+      <c r="U232" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="V232" s="2" t="s">
+      <c r="V232" s="5" t="s">
         <v>560</v>
       </c>
     </row>
@@ -16406,44 +16328,42 @@
       <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2" t="s">
+      <c r="C238" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K238" s="2"/>
-      <c r="L238" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M238" s="2" t="s">
+      <c r="K238" s="5"/>
+      <c r="L238" s="7"/>
+      <c r="M238" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N238" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
-      <c r="U238" s="2" t="s">
+      <c r="N238" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O238" s="5"/>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="5"/>
+      <c r="T238" s="5"/>
+      <c r="U238" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V238" s="2"/>
+      <c r="V238" s="5"/>
     </row>
     <row r="239" spans="1:22">
       <c r="A239" s="2" t="s">
@@ -16681,9 +16601,7 @@
         <v>467</v>
       </c>
       <c r="K243" s="2"/>
-      <c r="L243" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L243" s="7"/>
       <c r="M243" s="2" t="s">
         <v>75</v>
       </c>
@@ -16737,9 +16655,7 @@
         <v>467</v>
       </c>
       <c r="K244" s="2"/>
-      <c r="L244" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L244" s="7"/>
       <c r="M244" s="2" t="s">
         <v>75</v>
       </c>
@@ -16793,9 +16709,7 @@
         <v>467</v>
       </c>
       <c r="K245" s="2"/>
-      <c r="L245" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L245" s="7"/>
       <c r="M245" s="2" t="s">
         <v>75</v>
       </c>
@@ -16849,9 +16763,7 @@
         <v>467</v>
       </c>
       <c r="K246" s="2"/>
-      <c r="L246" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L246" s="7"/>
       <c r="M246" s="2" t="s">
         <v>75</v>
       </c>
@@ -16905,9 +16817,7 @@
         <v>467</v>
       </c>
       <c r="K247" s="2"/>
-      <c r="L247" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L247" s="7"/>
       <c r="M247" s="2" t="s">
         <v>75</v>
       </c>
@@ -16961,9 +16871,7 @@
         <v>467</v>
       </c>
       <c r="K248" s="2"/>
-      <c r="L248" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L248" s="7"/>
       <c r="M248" s="2" t="s">
         <v>75</v>
       </c>
@@ -17017,9 +16925,7 @@
         <v>467</v>
       </c>
       <c r="K249" s="2"/>
-      <c r="L249" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L249" s="7"/>
       <c r="M249" s="2" t="s">
         <v>75</v>
       </c>
@@ -17162,46 +17068,44 @@
       </c>
     </row>
     <row r="252" spans="1:22">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2" t="s">
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="5"/>
+      <c r="J252" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="K252" s="2" t="s">
+      <c r="K252" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="L252" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M252" s="2" t="s">
+      <c r="L252" s="7"/>
+      <c r="M252" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N252" s="2" t="s">
+      <c r="N252" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O252" s="2"/>
-      <c r="P252" s="2"/>
-      <c r="Q252" s="2"/>
-      <c r="R252" s="2"/>
-      <c r="S252" s="2"/>
-      <c r="T252" s="2"/>
-      <c r="U252" s="2" t="s">
+      <c r="O252" s="5"/>
+      <c r="P252" s="5"/>
+      <c r="Q252" s="5"/>
+      <c r="R252" s="5"/>
+      <c r="S252" s="5"/>
+      <c r="T252" s="5"/>
+      <c r="U252" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="V252" s="2" t="s">
+      <c r="V252" s="5" t="s">
         <v>560</v>
       </c>
     </row>
@@ -17468,44 +17372,42 @@
       <c r="V257" s="2"/>
     </row>
     <row r="258" spans="1:22">
-      <c r="A258" s="2" t="s">
+      <c r="A258" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2" t="s">
+      <c r="C258" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K258" s="2"/>
-      <c r="L258" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M258" s="2" t="s">
+      <c r="K258" s="5"/>
+      <c r="L258" s="7"/>
+      <c r="M258" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N258" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2"/>
-      <c r="Q258" s="2"/>
-      <c r="R258" s="2"/>
-      <c r="S258" s="2"/>
-      <c r="T258" s="2"/>
-      <c r="U258" s="2" t="s">
+      <c r="N258" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V258" s="2"/>
+      <c r="V258" s="5"/>
     </row>
     <row r="259" spans="1:22">
       <c r="A259" s="2" t="s">
@@ -17697,9 +17599,7 @@
         <v>467</v>
       </c>
       <c r="K262" s="2"/>
-      <c r="L262" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L262" s="7"/>
       <c r="M262" s="2" t="s">
         <v>77</v>
       </c>
@@ -17726,46 +17626,44 @@
       <c r="V262" s="2"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="2" t="s">
+      <c r="A263" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2" t="s">
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="K263" s="2" t="s">
+      <c r="K263" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="L263" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M263" s="2" t="s">
+      <c r="L263" s="7"/>
+      <c r="M263" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N263" s="2" t="s">
+      <c r="N263" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2"/>
-      <c r="Q263" s="2"/>
-      <c r="R263" s="2"/>
-      <c r="S263" s="2"/>
-      <c r="T263" s="2"/>
-      <c r="U263" s="2" t="s">
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="V263" s="2" t="s">
+      <c r="V263" s="5" t="s">
         <v>563</v>
       </c>
     </row>
@@ -17893,9 +17791,7 @@
         <v>466</v>
       </c>
       <c r="K266" s="2"/>
-      <c r="L266" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L266" s="7"/>
       <c r="M266" s="2" t="s">
         <v>78</v>
       </c>
@@ -18134,46 +18030,44 @@
       <c r="V270" s="2"/>
     </row>
     <row r="271" spans="1:22">
-      <c r="A271" s="2" t="s">
+      <c r="A271" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2" t="s">
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="K271" s="2" t="s">
+      <c r="K271" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="L271" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M271" s="2" t="s">
+      <c r="L271" s="7"/>
+      <c r="M271" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N271" s="2" t="s">
+      <c r="N271" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="2"/>
-      <c r="U271" s="2" t="s">
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="V271" s="2" t="s">
+      <c r="V271" s="5" t="s">
         <v>565</v>
       </c>
     </row>
@@ -18444,44 +18338,42 @@
       </c>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2" t="s">
+      <c r="C277" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K277" s="2"/>
-      <c r="L277" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M277" s="2" t="s">
+      <c r="K277" s="5"/>
+      <c r="L277" s="7"/>
+      <c r="M277" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N277" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-      <c r="S277" s="2"/>
-      <c r="T277" s="2"/>
-      <c r="U277" s="2" t="s">
+      <c r="N277" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V277" s="2"/>
+      <c r="V277" s="5"/>
     </row>
     <row r="278" spans="1:22">
       <c r="A278" s="2" t="s">
@@ -18719,9 +18611,7 @@
         <v>467</v>
       </c>
       <c r="K282" s="2"/>
-      <c r="L282" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L282" s="7"/>
       <c r="M282" s="2" t="s">
         <v>62</v>
       </c>
@@ -18748,46 +18638,44 @@
       <c r="V282" s="2"/>
     </row>
     <row r="283" spans="1:22">
-      <c r="A283" s="2" t="s">
+      <c r="A283" s="5" t="s">
         <v>981</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2" t="s">
+      <c r="D283" s="5"/>
+      <c r="E283" s="5"/>
+      <c r="F283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="K283" s="2" t="s">
+      <c r="K283" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="L283" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M283" s="2" t="s">
+      <c r="L283" s="7"/>
+      <c r="M283" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N283" s="2" t="s">
+      <c r="N283" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O283" s="2"/>
-      <c r="P283" s="2"/>
-      <c r="Q283" s="2"/>
-      <c r="R283" s="2"/>
-      <c r="S283" s="2"/>
-      <c r="T283" s="2"/>
-      <c r="U283" s="2" t="s">
+      <c r="O283" s="5"/>
+      <c r="P283" s="5"/>
+      <c r="Q283" s="5"/>
+      <c r="R283" s="5"/>
+      <c r="S283" s="5"/>
+      <c r="T283" s="5"/>
+      <c r="U283" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="V283" s="2" t="s">
+      <c r="V283" s="5" t="s">
         <v>566</v>
       </c>
     </row>
@@ -20066,46 +19954,44 @@
       <c r="V308" s="2"/>
     </row>
     <row r="309" spans="1:22">
-      <c r="A309" s="2" t="s">
+      <c r="A309" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
-      <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
-      <c r="J309" s="2" t="s">
+      <c r="D309" s="5"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
+      <c r="I309" s="5"/>
+      <c r="J309" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="K309" s="2" t="s">
+      <c r="K309" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="L309" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M309" s="2" t="s">
+      <c r="L309" s="7"/>
+      <c r="M309" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N309" s="2" t="s">
+      <c r="N309" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O309" s="2"/>
-      <c r="P309" s="2"/>
-      <c r="Q309" s="2"/>
-      <c r="R309" s="2"/>
-      <c r="S309" s="2"/>
-      <c r="T309" s="2"/>
-      <c r="U309" s="2" t="s">
+      <c r="O309" s="5"/>
+      <c r="P309" s="5"/>
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+      <c r="S309" s="5"/>
+      <c r="T309" s="5"/>
+      <c r="U309" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="V309" s="2" t="s">
+      <c r="V309" s="5" t="s">
         <v>572</v>
       </c>
     </row>
@@ -20326,46 +20212,44 @@
       <c r="V313" s="2"/>
     </row>
     <row r="314" spans="1:22">
-      <c r="A314" s="2" t="s">
+      <c r="A314" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
-      <c r="F314" s="2"/>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2"/>
-      <c r="I314" s="2"/>
-      <c r="J314" s="2" t="s">
+      <c r="D314" s="5"/>
+      <c r="E314" s="5"/>
+      <c r="F314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
+      <c r="I314" s="5"/>
+      <c r="J314" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="K314" s="2" t="s">
+      <c r="K314" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="L314" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M314" s="2" t="s">
+      <c r="L314" s="7"/>
+      <c r="M314" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="N314" s="2" t="s">
+      <c r="N314" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="O314" s="2"/>
-      <c r="P314" s="2"/>
-      <c r="Q314" s="2"/>
-      <c r="R314" s="2"/>
-      <c r="S314" s="2"/>
-      <c r="T314" s="2"/>
-      <c r="U314" s="2" t="s">
+      <c r="O314" s="5"/>
+      <c r="P314" s="5"/>
+      <c r="Q314" s="5"/>
+      <c r="R314" s="5"/>
+      <c r="S314" s="5"/>
+      <c r="T314" s="5"/>
+      <c r="U314" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="V314" s="2" t="s">
+      <c r="V314" s="5" t="s">
         <v>573</v>
       </c>
     </row>
@@ -20586,44 +20470,42 @@
       <c r="V318" s="2"/>
     </row>
     <row r="319" spans="1:22">
-      <c r="A319" s="2" t="s">
+      <c r="A319" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="F319" s="2"/>
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-      <c r="I319" s="2"/>
-      <c r="J319" s="2" t="s">
+      <c r="C319" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K319" s="2"/>
-      <c r="L319" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M319" s="2" t="s">
+      <c r="K319" s="5"/>
+      <c r="L319" s="7"/>
+      <c r="M319" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N319" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O319" s="2"/>
-      <c r="P319" s="2"/>
-      <c r="Q319" s="2"/>
-      <c r="R319" s="2"/>
-      <c r="S319" s="2"/>
-      <c r="T319" s="2"/>
-      <c r="U319" s="2" t="s">
+      <c r="N319" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O319" s="5"/>
+      <c r="P319" s="5"/>
+      <c r="Q319" s="5"/>
+      <c r="R319" s="5"/>
+      <c r="S319" s="5"/>
+      <c r="T319" s="5"/>
+      <c r="U319" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V319" s="2"/>
+      <c r="V319" s="5"/>
     </row>
     <row r="320" spans="1:22">
       <c r="A320" s="2" t="s">
@@ -20757,9 +20639,7 @@
         <v>467</v>
       </c>
       <c r="K322" s="2"/>
-      <c r="L322" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L322" s="7"/>
       <c r="M322" s="2" t="s">
         <v>90</v>
       </c>
@@ -20813,9 +20693,7 @@
         <v>467</v>
       </c>
       <c r="K323" s="2"/>
-      <c r="L323" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L323" s="7"/>
       <c r="M323" s="2" t="s">
         <v>90</v>
       </c>
@@ -20977,9 +20855,7 @@
         <v>470</v>
       </c>
       <c r="K326" s="2"/>
-      <c r="L326" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L326" s="7"/>
       <c r="M326" s="2" t="s">
         <v>67</v>
       </c>
@@ -21033,9 +20909,7 @@
         <v>470</v>
       </c>
       <c r="K327" s="2"/>
-      <c r="L327" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L327" s="7"/>
       <c r="M327" s="2" t="s">
         <v>67</v>
       </c>
@@ -21089,9 +20963,7 @@
         <v>470</v>
       </c>
       <c r="K328" s="2"/>
-      <c r="L328" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L328" s="7"/>
       <c r="M328" s="2" t="s">
         <v>67</v>
       </c>
@@ -21253,9 +21125,7 @@
         <v>467</v>
       </c>
       <c r="K331" s="2"/>
-      <c r="L331" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L331" s="7"/>
       <c r="M331" s="2" t="s">
         <v>69</v>
       </c>
@@ -21309,9 +21179,7 @@
         <v>467</v>
       </c>
       <c r="K332" s="2"/>
-      <c r="L332" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L332" s="7"/>
       <c r="M332" s="2" t="s">
         <v>69</v>
       </c>
@@ -21473,9 +21341,7 @@
         <v>467</v>
       </c>
       <c r="K335" s="2"/>
-      <c r="L335" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L335" s="7"/>
       <c r="M335" s="2" t="s">
         <v>70</v>
       </c>
@@ -21529,9 +21395,7 @@
         <v>467</v>
       </c>
       <c r="K336" s="2"/>
-      <c r="L336" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L336" s="7"/>
       <c r="M336" s="2" t="s">
         <v>70</v>
       </c>
@@ -21693,9 +21557,7 @@
         <v>467</v>
       </c>
       <c r="K339" s="2"/>
-      <c r="L339" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L339" s="7"/>
       <c r="M339" s="2" t="s">
         <v>91</v>
       </c>
@@ -21749,9 +21611,7 @@
         <v>467</v>
       </c>
       <c r="K340" s="2"/>
-      <c r="L340" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L340" s="7"/>
       <c r="M340" s="2" t="s">
         <v>91</v>
       </c>
@@ -21805,9 +21665,7 @@
         <v>467</v>
       </c>
       <c r="K341" s="2"/>
-      <c r="L341" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L341" s="7"/>
       <c r="M341" s="2" t="s">
         <v>91</v>
       </c>
@@ -21861,9 +21719,7 @@
         <v>467</v>
       </c>
       <c r="K342" s="2"/>
-      <c r="L342" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L342" s="7"/>
       <c r="M342" s="2" t="s">
         <v>91</v>
       </c>
@@ -22025,9 +21881,7 @@
         <v>467</v>
       </c>
       <c r="K345" s="2"/>
-      <c r="L345" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L345" s="7"/>
       <c r="M345" s="2" t="s">
         <v>92</v>
       </c>
@@ -22081,9 +21935,7 @@
         <v>467</v>
       </c>
       <c r="K346" s="2"/>
-      <c r="L346" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L346" s="7"/>
       <c r="M346" s="2" t="s">
         <v>92</v>
       </c>
@@ -22137,9 +21989,7 @@
         <v>467</v>
       </c>
       <c r="K347" s="2"/>
-      <c r="L347" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L347" s="7"/>
       <c r="M347" s="2" t="s">
         <v>92</v>
       </c>
@@ -22301,9 +22151,7 @@
         <v>467</v>
       </c>
       <c r="K350" s="2"/>
-      <c r="L350" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L350" s="7"/>
       <c r="M350" s="2" t="s">
         <v>93</v>
       </c>
@@ -22465,9 +22313,7 @@
         <v>467</v>
       </c>
       <c r="K353" s="2"/>
-      <c r="L353" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L353" s="7"/>
       <c r="M353" s="2" t="s">
         <v>94</v>
       </c>
@@ -22629,9 +22475,7 @@
         <v>467</v>
       </c>
       <c r="K356" s="2"/>
-      <c r="L356" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L356" s="7"/>
       <c r="M356" s="2" t="s">
         <v>95</v>
       </c>
@@ -22685,9 +22529,7 @@
         <v>467</v>
       </c>
       <c r="K357" s="2"/>
-      <c r="L357" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L357" s="7"/>
       <c r="M357" s="2" t="s">
         <v>95</v>
       </c>
@@ -22741,9 +22583,7 @@
         <v>467</v>
       </c>
       <c r="K358" s="2"/>
-      <c r="L358" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L358" s="7"/>
       <c r="M358" s="2" t="s">
         <v>95</v>
       </c>
@@ -23049,9 +22889,7 @@
         <v>467</v>
       </c>
       <c r="K364" s="2"/>
-      <c r="L364" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L364" s="7"/>
       <c r="M364" s="2" t="s">
         <v>96</v>
       </c>
@@ -23078,46 +22916,44 @@
       <c r="V364" s="2"/>
     </row>
     <row r="365" spans="1:22">
-      <c r="A365" s="2" t="s">
+      <c r="A365" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C365" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="F365" s="2"/>
-      <c r="G365" s="2"/>
-      <c r="H365" s="2"/>
-      <c r="I365" s="2"/>
-      <c r="J365" s="2" t="s">
+      <c r="D365" s="5"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
+      <c r="I365" s="5"/>
+      <c r="J365" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="K365" s="2" t="s">
+      <c r="K365" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="L365" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M365" s="2" t="s">
+      <c r="L365" s="7"/>
+      <c r="M365" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N365" s="2" t="s">
+      <c r="N365" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O365" s="2"/>
-      <c r="P365" s="2"/>
-      <c r="Q365" s="2"/>
-      <c r="R365" s="2"/>
-      <c r="S365" s="2"/>
-      <c r="T365" s="2"/>
-      <c r="U365" s="2" t="s">
+      <c r="O365" s="5"/>
+      <c r="P365" s="5"/>
+      <c r="Q365" s="5"/>
+      <c r="R365" s="5"/>
+      <c r="S365" s="5"/>
+      <c r="T365" s="5"/>
+      <c r="U365" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="V365" s="2" t="s">
+      <c r="V365" s="5" t="s">
         <v>579</v>
       </c>
     </row>
@@ -23388,44 +23224,42 @@
       </c>
     </row>
     <row r="371" spans="1:22">
-      <c r="A371" s="2" t="s">
+      <c r="A371" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D371" s="2"/>
-      <c r="E371" s="2"/>
-      <c r="F371" s="2"/>
-      <c r="G371" s="2"/>
-      <c r="H371" s="2"/>
-      <c r="I371" s="2"/>
-      <c r="J371" s="2" t="s">
+      <c r="C371" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D371" s="5"/>
+      <c r="E371" s="5"/>
+      <c r="F371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
+      <c r="J371" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="K371" s="2"/>
-      <c r="L371" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M371" s="2" t="s">
+      <c r="K371" s="5"/>
+      <c r="L371" s="7"/>
+      <c r="M371" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N371" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O371" s="2"/>
-      <c r="P371" s="2"/>
-      <c r="Q371" s="2"/>
-      <c r="R371" s="2"/>
-      <c r="S371" s="2"/>
-      <c r="T371" s="2"/>
-      <c r="U371" s="2" t="s">
+      <c r="N371" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O371" s="5"/>
+      <c r="P371" s="5"/>
+      <c r="Q371" s="5"/>
+      <c r="R371" s="5"/>
+      <c r="S371" s="5"/>
+      <c r="T371" s="5"/>
+      <c r="U371" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="V371" s="2"/>
+      <c r="V371" s="5"/>
     </row>
     <row r="372" spans="1:22">
       <c r="A372" s="2" t="s">
@@ -23818,46 +23652,44 @@
       <c r="V379" s="9"/>
     </row>
     <row r="380" spans="1:22">
-      <c r="A380" s="2" t="s">
+      <c r="A380" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D380" s="2"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
-      <c r="G380" s="2"/>
-      <c r="H380" s="2"/>
-      <c r="I380" s="2"/>
-      <c r="J380" s="2" t="s">
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
+      <c r="I380" s="5"/>
+      <c r="J380" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="K380" s="2" t="s">
+      <c r="K380" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="L380" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M380" s="2" t="s">
+      <c r="L380" s="7"/>
+      <c r="M380" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N380" s="2" t="s">
+      <c r="N380" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="O380" s="2"/>
-      <c r="P380" s="2"/>
-      <c r="Q380" s="2"/>
-      <c r="R380" s="2"/>
-      <c r="S380" s="2"/>
-      <c r="T380" s="2"/>
-      <c r="U380" s="2" t="s">
+      <c r="O380" s="5"/>
+      <c r="P380" s="5"/>
+      <c r="Q380" s="5"/>
+      <c r="R380" s="5"/>
+      <c r="S380" s="5"/>
+      <c r="T380" s="5"/>
+      <c r="U380" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="V380" s="2" t="s">
+      <c r="V380" s="5" t="s">
         <v>580</v>
       </c>
     </row>
@@ -24290,46 +24122,44 @@
       <c r="V388" s="2"/>
     </row>
     <row r="389" spans="1:22">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
-      <c r="H389" s="2"/>
-      <c r="I389" s="2"/>
-      <c r="J389" s="2" t="s">
+      <c r="C389" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D389" s="5"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
+      <c r="I389" s="5"/>
+      <c r="J389" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="K389" s="2" t="s">
+      <c r="K389" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="L389" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M389" s="2" t="s">
+      <c r="L389" s="7"/>
+      <c r="M389" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N389" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="O389" s="2"/>
-      <c r="P389" s="2"/>
-      <c r="Q389" s="2"/>
-      <c r="R389" s="2"/>
-      <c r="S389" s="2"/>
-      <c r="T389" s="2"/>
-      <c r="U389" s="2" t="s">
+      <c r="N389" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="O389" s="5"/>
+      <c r="P389" s="5"/>
+      <c r="Q389" s="5"/>
+      <c r="R389" s="5"/>
+      <c r="S389" s="5"/>
+      <c r="T389" s="5"/>
+      <c r="U389" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="V389" s="2" t="s">
+      <c r="V389" s="5" t="s">
         <v>544</v>
       </c>
     </row>
@@ -24681,9 +24511,7 @@
         <v>467</v>
       </c>
       <c r="K396" s="2"/>
-      <c r="L396" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L396" s="7"/>
       <c r="M396" s="2" t="s">
         <v>47</v>
       </c>
@@ -24996,46 +24824,44 @@
       <c r="V402" s="2"/>
     </row>
     <row r="403" spans="1:22">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="5" t="s">
         <v>1099</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="C403" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D403" s="2"/>
-      <c r="E403" s="2"/>
-      <c r="F403" s="2"/>
-      <c r="G403" s="2"/>
-      <c r="H403" s="2"/>
-      <c r="I403" s="2"/>
-      <c r="J403" s="2" t="s">
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="5"/>
+      <c r="J403" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="K403" s="2" t="s">
+      <c r="K403" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L403" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M403" s="2" t="s">
+      <c r="L403" s="7"/>
+      <c r="M403" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N403" s="2" t="s">
+      <c r="N403" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O403" s="2"/>
-      <c r="P403" s="2"/>
-      <c r="Q403" s="2"/>
-      <c r="R403" s="2"/>
-      <c r="S403" s="2"/>
-      <c r="T403" s="2"/>
-      <c r="U403" s="2" t="s">
+      <c r="O403" s="5"/>
+      <c r="P403" s="5"/>
+      <c r="Q403" s="5"/>
+      <c r="R403" s="5"/>
+      <c r="S403" s="5"/>
+      <c r="T403" s="5"/>
+      <c r="U403" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="V403" s="2" t="s">
+      <c r="V403" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -25283,9 +25109,7 @@
         <v>467</v>
       </c>
       <c r="K408" s="2"/>
-      <c r="L408" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L408" s="7"/>
       <c r="M408" s="2" t="s">
         <v>103</v>
       </c>
@@ -25474,46 +25298,44 @@
       </c>
     </row>
     <row r="412" spans="1:22">
-      <c r="A412" s="2" t="s">
+      <c r="A412" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C412" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D412" s="2"/>
-      <c r="E412" s="2"/>
-      <c r="F412" s="2"/>
-      <c r="G412" s="2"/>
-      <c r="H412" s="2"/>
-      <c r="I412" s="2"/>
-      <c r="J412" s="2" t="s">
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="5"/>
+      <c r="J412" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="K412" s="2" t="s">
+      <c r="K412" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L412" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M412" s="2" t="s">
+      <c r="L412" s="7"/>
+      <c r="M412" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N412" s="2" t="s">
+      <c r="N412" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O412" s="2"/>
-      <c r="P412" s="2"/>
-      <c r="Q412" s="2"/>
-      <c r="R412" s="2"/>
-      <c r="S412" s="2"/>
-      <c r="T412" s="2"/>
-      <c r="U412" s="2" t="s">
+      <c r="O412" s="5"/>
+      <c r="P412" s="5"/>
+      <c r="Q412" s="5"/>
+      <c r="R412" s="5"/>
+      <c r="S412" s="5"/>
+      <c r="T412" s="5"/>
+      <c r="U412" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="V412" s="2" t="s">
+      <c r="V412" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -25761,9 +25583,7 @@
         <v>467</v>
       </c>
       <c r="K417" s="2"/>
-      <c r="L417" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L417" s="7"/>
       <c r="M417" s="2" t="s">
         <v>104</v>
       </c>
@@ -26172,46 +25992,44 @@
       </c>
     </row>
     <row r="425" spans="1:22">
-      <c r="A425" s="2" t="s">
+      <c r="A425" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C425" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="F425" s="2"/>
-      <c r="G425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2" t="s">
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="5"/>
+      <c r="J425" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="K425" s="2" t="s">
+      <c r="K425" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L425" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M425" s="2" t="s">
+      <c r="L425" s="7"/>
+      <c r="M425" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N425" s="2" t="s">
+      <c r="N425" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O425" s="2"/>
-      <c r="P425" s="2"/>
-      <c r="Q425" s="2"/>
-      <c r="R425" s="2"/>
-      <c r="S425" s="2"/>
-      <c r="T425" s="2"/>
-      <c r="U425" s="2" t="s">
+      <c r="O425" s="5"/>
+      <c r="P425" s="5"/>
+      <c r="Q425" s="5"/>
+      <c r="R425" s="5"/>
+      <c r="S425" s="5"/>
+      <c r="T425" s="5"/>
+      <c r="U425" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="V425" s="2" t="s">
+      <c r="V425" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -26459,9 +26277,7 @@
         <v>467</v>
       </c>
       <c r="K430" s="2"/>
-      <c r="L430" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L430" s="7"/>
       <c r="M430" s="2" t="s">
         <v>105</v>
       </c>
@@ -26708,46 +26524,44 @@
       <c r="V434" s="2"/>
     </row>
     <row r="435" spans="1:22">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="C435" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="F435" s="2"/>
-      <c r="G435" s="2"/>
-      <c r="H435" s="2"/>
-      <c r="I435" s="2"/>
-      <c r="J435" s="2" t="s">
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="5"/>
+      <c r="J435" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="K435" s="2" t="s">
+      <c r="K435" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="L435" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M435" s="2" t="s">
+      <c r="L435" s="7"/>
+      <c r="M435" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N435" s="2" t="s">
+      <c r="N435" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O435" s="2"/>
-      <c r="P435" s="2"/>
-      <c r="Q435" s="2"/>
-      <c r="R435" s="2"/>
-      <c r="S435" s="2"/>
-      <c r="T435" s="2"/>
-      <c r="U435" s="2" t="s">
+      <c r="O435" s="5"/>
+      <c r="P435" s="5"/>
+      <c r="Q435" s="5"/>
+      <c r="R435" s="5"/>
+      <c r="S435" s="5"/>
+      <c r="T435" s="5"/>
+      <c r="U435" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="V435" s="2" t="s">
+      <c r="V435" s="5" t="s">
         <v>581</v>
       </c>
     </row>
@@ -26995,9 +26809,7 @@
         <v>467</v>
       </c>
       <c r="K440" s="2"/>
-      <c r="L440" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="L440" s="7"/>
       <c r="M440" s="2" t="s">
         <v>106</v>
       </c>
@@ -27244,46 +27056,44 @@
       <c r="V444" s="2"/>
     </row>
     <row r="445" spans="1:22">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="C445" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D445" s="2"/>
-      <c r="E445" s="2"/>
-      <c r="F445" s="2"/>
-      <c r="G445" s="2"/>
-      <c r="H445" s="2"/>
-      <c r="I445" s="2"/>
-      <c r="J445" s="2" t="s">
+      <c r="D445" s="5"/>
+      <c r="E445" s="5"/>
+      <c r="F445" s="5"/>
+      <c r="G445" s="5"/>
+      <c r="H445" s="5"/>
+      <c r="I445" s="5"/>
+      <c r="J445" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K445" s="2" t="s">
+      <c r="K445" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L445" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="M445" s="2" t="s">
+      <c r="L445" s="7"/>
+      <c r="M445" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N445" s="2" t="s">
+      <c r="N445" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O445" s="2"/>
-      <c r="P445" s="2"/>
-      <c r="Q445" s="2"/>
-      <c r="R445" s="2"/>
-      <c r="S445" s="2"/>
-      <c r="T445" s="2"/>
-      <c r="U445" s="2" t="s">
+      <c r="O445" s="5"/>
+      <c r="P445" s="5"/>
+      <c r="Q445" s="5"/>
+      <c r="R445" s="5"/>
+      <c r="S445" s="5"/>
+      <c r="T445" s="5"/>
+      <c r="U445" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="V445" s="2" t="s">
+      <c r="V445" s="5" t="s">
         <v>542</v>
       </c>
     </row>
